--- a/HANA Reference Tables.xlsx
+++ b/HANA Reference Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCN-JACN\Python\CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C5FE4D-896E-4B80-A85E-055F01C31CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3298876F-323C-4F5B-9D81-6AB0FC38D976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A377E182-DA63-4E96-8D2C-E2408F8FE843}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{A377E182-DA63-4E96-8D2C-E2408F8FE843}"/>
   </bookViews>
   <sheets>
     <sheet name="Check01" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,10 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Check01!$A$1:$D$601</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Check01!$A$1:$D$602</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Check06!$A$1:$C$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Check07!$A$1:$C$425</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Check08!$A$1:$D$440</definedName>
     <definedName name="Category">[1]Conditions!$C$12:$C$21</definedName>
     <definedName name="KEY_BRA">#REF!</definedName>
     <definedName name="KEY_CAT1">#REF!</definedName>
@@ -110,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4968" uniqueCount="1143">
   <si>
     <t>Category</t>
   </si>
@@ -3241,6 +3244,323 @@
   </si>
   <si>
     <t>Doubly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixed PVM Brands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixed Sub Brands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full Fruit / Juice Blast / Pure Fruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.a.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cola + Vanilla</t>
+  </si>
+  <si>
+    <t>Caramel + Chocolate</t>
+  </si>
+  <si>
+    <t>Caramel + Chocolate-Hazelnut</t>
+  </si>
+  <si>
+    <t>Caramel + Chocolate-Mint</t>
+  </si>
+  <si>
+    <t>Caramel + Chocolate-Peanut</t>
+  </si>
+  <si>
+    <t>Caramel + Chocolate-White</t>
+  </si>
+  <si>
+    <t>Caramel + Fruit</t>
+  </si>
+  <si>
+    <t>Caramel + Mint</t>
+  </si>
+  <si>
+    <t>Caramel + Chocolate-Coffee</t>
+  </si>
+  <si>
+    <t>Caramel + Lacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caramel + Seasalt</t>
+  </si>
+  <si>
+    <t>Chocolate + Fruit</t>
+  </si>
+  <si>
+    <t>Chocolate + Mint</t>
+  </si>
+  <si>
+    <t>Chocolate + Other</t>
+  </si>
+  <si>
+    <t>Chocolate + Vanilla</t>
+  </si>
+  <si>
+    <t>Coffee + Cream</t>
+  </si>
+  <si>
+    <t>Dairy + Other</t>
+  </si>
+  <si>
+    <t>Assorted Dairy + Other</t>
+  </si>
+  <si>
+    <t>Chocolate + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Chocolate + LAD</t>
+  </si>
+  <si>
+    <t>Cola-Vanilla + Cream</t>
+  </si>
+  <si>
+    <t>Cookies + Cream</t>
+  </si>
+  <si>
+    <t>Lacto + Vanilla</t>
+  </si>
+  <si>
+    <t>Mint + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Tea + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Cherry + Pineapple</t>
+  </si>
+  <si>
+    <t>Fruit + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Assorted Fruit + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Banana + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Grape + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Lemon + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Lychee + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Mango + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Mango-Grape + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Orange + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Orange-Melon + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Papaya + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Peach + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Pear + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Pineapple-Coconut + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Raspberry + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Strawberry + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Strawberry-Banana + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Tropical Fruit + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Cherry + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Blueberry + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Melon + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Mixed Berries + Cream / Milk</t>
+  </si>
+  <si>
+    <t>Fruit + LAD</t>
+  </si>
+  <si>
+    <t>Assorted Fruit + LAD</t>
+  </si>
+  <si>
+    <t>Grape + LAD</t>
+  </si>
+  <si>
+    <t>Mango + LAD</t>
+  </si>
+  <si>
+    <t>Strawberry + LAD</t>
+  </si>
+  <si>
+    <t>Fruit + Other</t>
+  </si>
+  <si>
+    <t>Blueberry + Sage</t>
+  </si>
+  <si>
+    <t>Blueberry + White Tea</t>
+  </si>
+  <si>
+    <t>Cranberry + White tea</t>
+  </si>
+  <si>
+    <t>Fruit + Chili</t>
+  </si>
+  <si>
+    <t>Lemon + Camomille</t>
+  </si>
+  <si>
+    <t>Orange + Black Tea</t>
+  </si>
+  <si>
+    <t>Orange + Cardamom</t>
+  </si>
+  <si>
+    <t>Orange + Vanilla</t>
+  </si>
+  <si>
+    <t>Strawberry + Rose</t>
+  </si>
+  <si>
+    <t>Strawberry + Vanilla</t>
+  </si>
+  <si>
+    <t>Fruit + Yoghurt</t>
+  </si>
+  <si>
+    <t>Assorted Fruit + Yoghurt</t>
+  </si>
+  <si>
+    <t>Blueberry + Yoghurt</t>
+  </si>
+  <si>
+    <t>Grape + Yoghurt</t>
+  </si>
+  <si>
+    <t>Lemon + Yoghurt</t>
+  </si>
+  <si>
+    <t>Mango + Yoghurt</t>
+  </si>
+  <si>
+    <t>Melon + Yoghurt</t>
+  </si>
+  <si>
+    <t>Mixed Berries + Yoghurt</t>
+  </si>
+  <si>
+    <t>Peach + Yoghurt</t>
+  </si>
+  <si>
+    <t>Pineapple + Yoghurt</t>
+  </si>
+  <si>
+    <t>Pomegranate + Yoghurt</t>
+  </si>
+  <si>
+    <t>Raspberry + Yoghurt</t>
+  </si>
+  <si>
+    <t>Red Fruits + (Greek) Yoghurt</t>
+  </si>
+  <si>
+    <t>Strawberry + Yoghurt</t>
+  </si>
+  <si>
+    <t>Mint + Fruit</t>
+  </si>
+  <si>
+    <t>Mint + Other</t>
+  </si>
+  <si>
+    <t>Aniseed + Menthol</t>
+  </si>
+  <si>
+    <t>Other Mix + Mint</t>
+  </si>
+  <si>
+    <t>Strawberry-Yoghurt + Chocolate</t>
+  </si>
+  <si>
+    <t>Herbs + Apple Mint</t>
+  </si>
+  <si>
+    <t>Herbs + Lemon Melissa</t>
+  </si>
+  <si>
+    <t>Herbs + Caramel</t>
+  </si>
+  <si>
+    <t>Herbs + Cranberry</t>
+  </si>
+  <si>
+    <t>Herbs + Orange Mint</t>
+  </si>
+  <si>
+    <t>Herbs + Licorice</t>
+  </si>
+  <si>
+    <t>Herbs + Honey Echinacea</t>
+  </si>
+  <si>
+    <t>Herbs + Glacier Mint</t>
+  </si>
+  <si>
+    <t>Herbs + Honey Sage</t>
+  </si>
+  <si>
+    <t>Herbs + Elderflower</t>
+  </si>
+  <si>
+    <t>Herbs + Sage</t>
+  </si>
+  <si>
+    <t>Herbs + Sea Buckthorn</t>
+  </si>
+  <si>
+    <t>Red Fruit + Nuts</t>
+  </si>
+  <si>
+    <t>Yellow Fruits + Nuts</t>
+  </si>
+  <si>
+    <t>Cacao + Coconut + Nuts</t>
+  </si>
+  <si>
+    <t>Sour Strawberry + Vanilla</t>
+  </si>
+  <si>
+    <t>Cola Lime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3280,7 +3600,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3303,6 +3623,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3339,11 +3665,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="SAPDimensionCell" xfId="1" xr:uid="{E0213E73-AF7D-4E3C-B0E5-6FD66ACDF994}"/>
@@ -3732,10 +4059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2281A6-6503-4CF7-A1D1-91A1835C234D}">
-  <dimension ref="A1:D601"/>
+  <dimension ref="A1:D602"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10869,7 +11196,7 @@
         <v>31</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>17</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
@@ -10908,7 +11235,7 @@
         <v>30</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>279</v>
+        <v>1039</v>
       </c>
       <c r="D512" s="2" t="s">
         <v>17</v>
@@ -12160,8 +12487,22 @@
         <v>1037</v>
       </c>
     </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>601</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D602" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D601" xr:uid="{7B2281A6-6503-4CF7-A1D1-91A1835C234D}"/>
+  <autoFilter ref="A1:D602" xr:uid="{7B2281A6-6503-4CF7-A1D1-91A1835C234D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -16153,11 +16494,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BE8C99-2710-4C11-882A-BC4CF9C58663}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17276,6 +17615,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17284,10 +17634,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9280A2EB-6138-4591-893E-551AEB7BC999}">
-  <dimension ref="A1:C344"/>
+  <dimension ref="A1:C460"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="F465" sqref="F465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17337,7 +17687,7 @@
         <v>646</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>960</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -17623,7 +17973,7 @@
         <v>674</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>961</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -17634,7 +17984,7 @@
         <v>674</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>962</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -17645,7 +17995,7 @@
         <v>674</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>963</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -17656,7 +18006,7 @@
         <v>674</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>964</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -17667,7 +18017,7 @@
         <v>674</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>965</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -17678,7 +18028,7 @@
         <v>674</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>966</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -17689,7 +18039,7 @@
         <v>674</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>967</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -17722,7 +18072,7 @@
         <v>674</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>968</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -17733,7 +18083,7 @@
         <v>674</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>969</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -17744,7 +18094,7 @@
         <v>674</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>970</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -17755,7 +18105,7 @@
         <v>434</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>971</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -17766,7 +18116,7 @@
         <v>434</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>972</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -17777,7 +18127,7 @@
         <v>434</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>973</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -17788,7 +18138,7 @@
         <v>434</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>974</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -17887,7 +18237,7 @@
         <v>683</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>975</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -17906,10 +18256,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>976</v>
+        <v>1059</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>977</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -17917,10 +18267,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>976</v>
+        <v>1059</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>978</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -17928,10 +18278,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>976</v>
+        <v>1059</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>979</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -17939,10 +18289,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>976</v>
+        <v>1059</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>980</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -17950,10 +18300,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>976</v>
+        <v>1059</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>981</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -17961,10 +18311,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>976</v>
+        <v>1059</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>982</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -17972,10 +18322,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>976</v>
+        <v>1059</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>983</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -17983,10 +18333,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>976</v>
+        <v>1059</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>984</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -19009,7 +19359,7 @@
         <v>85</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>985</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -19061,10 +19411,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>939</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -19072,10 +19422,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>940</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -19083,10 +19433,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>941</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -19094,10 +19444,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>942</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -19105,10 +19455,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>943</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -19116,10 +19466,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>944</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -19127,10 +19477,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>945</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -19138,10 +19488,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>946</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -19149,10 +19499,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>947</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -19160,10 +19510,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>948</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -19171,10 +19521,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>949</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -19182,10 +19532,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>950</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -19193,10 +19543,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>951</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -19204,10 +19554,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>952</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -19215,10 +19565,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>953</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -19226,10 +19576,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>954</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -19237,10 +19587,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>955</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -19248,10 +19598,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>956</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -19259,10 +19609,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>957</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -19270,10 +19620,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>958</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -19281,10 +19631,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>938</v>
+        <v>1069</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>959</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -19292,10 +19642,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>986</v>
+        <v>1091</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>987</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -19303,10 +19653,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>986</v>
+        <v>1091</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>988</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -19314,10 +19664,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>986</v>
+        <v>1091</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>989</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -19325,10 +19675,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>986</v>
+        <v>1091</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>990</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -19336,10 +19686,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>991</v>
+        <v>1096</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>992</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -19347,10 +19697,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>991</v>
+        <v>1096</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>993</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -19358,10 +19708,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>991</v>
+        <v>1096</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>994</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -19369,10 +19719,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>991</v>
+        <v>1096</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>995</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -19380,7 +19730,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>991</v>
+        <v>1096</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>781</v>
@@ -19391,10 +19741,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>991</v>
+        <v>1096</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>996</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -19402,10 +19752,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>991</v>
+        <v>1096</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>997</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -19413,10 +19763,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>991</v>
+        <v>1096</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>998</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -19424,10 +19774,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>991</v>
+        <v>1096</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>999</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -19435,10 +19785,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>991</v>
+        <v>1096</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>1000</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -19446,10 +19796,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>991</v>
+        <v>1096</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>1001</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -19457,10 +19807,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1002</v>
+        <v>1107</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1003</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -19468,10 +19818,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1002</v>
+        <v>1107</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1004</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -19479,10 +19829,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1002</v>
+        <v>1107</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1005</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -19490,10 +19840,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1002</v>
+        <v>1107</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>1006</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -19501,10 +19851,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1002</v>
+        <v>1107</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>1007</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -19512,10 +19862,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1002</v>
+        <v>1107</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>1008</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -19523,10 +19873,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>1002</v>
+        <v>1107</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>1009</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -19534,10 +19884,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>1002</v>
+        <v>1107</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>1010</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -19545,10 +19895,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1002</v>
+        <v>1107</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>1011</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -19556,10 +19906,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1002</v>
+        <v>1107</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>1012</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -19567,10 +19917,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1002</v>
+        <v>1107</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>1013</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -19578,10 +19928,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>1002</v>
+        <v>1107</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>1014</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -19589,10 +19939,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1002</v>
+        <v>1107</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>1015</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -19985,7 +20335,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1016</v>
+        <v>1121</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>816</v>
@@ -19996,7 +20346,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>1016</v>
+        <v>1121</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>817</v>
@@ -20007,7 +20357,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1016</v>
+        <v>1121</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>818</v>
@@ -20018,7 +20368,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>1016</v>
+        <v>1121</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>819</v>
@@ -20029,7 +20379,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1016</v>
+        <v>1121</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>820</v>
@@ -20040,7 +20390,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1016</v>
+        <v>1121</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>821</v>
@@ -20051,7 +20401,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>1016</v>
+        <v>1121</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>822</v>
@@ -20062,7 +20412,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>1016</v>
+        <v>1121</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>823</v>
@@ -20073,7 +20423,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>1016</v>
+        <v>1121</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>824</v>
@@ -20084,7 +20434,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1016</v>
+        <v>1121</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>825</v>
@@ -20095,7 +20445,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>1016</v>
+        <v>1121</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>826</v>
@@ -20106,7 +20456,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1016</v>
+        <v>1121</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>827</v>
@@ -20117,7 +20467,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1016</v>
+        <v>1121</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>251</v>
@@ -20128,7 +20478,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1016</v>
+        <v>1121</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>828</v>
@@ -20139,10 +20489,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1017</v>
+        <v>1122</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1018</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -20150,7 +20500,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>1017</v>
+        <v>1122</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>829</v>
@@ -20161,7 +20511,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1017</v>
+        <v>1122</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>830</v>
@@ -20172,7 +20522,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1017</v>
+        <v>1122</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>831</v>
@@ -20183,10 +20533,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>1017</v>
+        <v>1122</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>1019</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -20194,7 +20544,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>1017</v>
+        <v>1122</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>832</v>
@@ -20205,7 +20555,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>1017</v>
+        <v>1122</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>833</v>
@@ -20216,7 +20566,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>1017</v>
+        <v>1122</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>834</v>
@@ -20227,7 +20577,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>1017</v>
+        <v>1122</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>835</v>
@@ -20238,7 +20588,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>1017</v>
+        <v>1122</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>836</v>
@@ -20659,7 +21009,7 @@
         <v>15</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>1020</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -20692,7 +21042,7 @@
         <v>15</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>1021</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -20703,7 +21053,7 @@
         <v>15</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>1022</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -20714,7 +21064,7 @@
         <v>15</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>1023</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -20725,7 +21075,7 @@
         <v>15</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1024</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -20736,7 +21086,7 @@
         <v>15</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -20747,7 +21097,7 @@
         <v>15</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>1026</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -20758,7 +21108,7 @@
         <v>15</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>1027</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -20769,7 +21119,7 @@
         <v>15</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>1028</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -20780,7 +21130,7 @@
         <v>15</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>1029</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -20791,7 +21141,7 @@
         <v>15</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>1030</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -20802,7 +21152,7 @@
         <v>15</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>1031</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -20813,7 +21163,7 @@
         <v>15</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>1032</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -20890,7 +21240,7 @@
         <v>15</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>1033</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -20901,7 +21251,7 @@
         <v>15</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>1034</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -20912,7 +21262,7 @@
         <v>15</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>1035</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -21044,7 +21394,7 @@
         <v>881</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>1036</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -21080,7 +21430,1284 @@
         <v>895</v>
       </c>
     </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="4">
+        <v>344</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" s="4">
+        <v>345</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" s="4">
+        <v>346</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" s="4">
+        <v>347</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" s="4">
+        <v>348</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" s="4">
+        <v>349</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" s="4">
+        <v>350</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" s="4">
+        <v>351</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" s="4">
+        <v>352</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" s="4">
+        <v>353</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" s="4">
+        <v>354</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" s="4">
+        <v>355</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" s="4">
+        <v>356</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" s="4">
+        <v>357</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" s="4">
+        <v>358</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="4">
+        <v>359</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" s="4">
+        <v>360</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" s="4">
+        <v>361</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" s="4">
+        <v>362</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" s="4">
+        <v>363</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" s="4">
+        <v>364</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" s="4">
+        <v>365</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" s="4">
+        <v>366</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" s="4">
+        <v>367</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" s="4">
+        <v>368</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" s="4">
+        <v>369</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" s="4">
+        <v>370</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" s="4">
+        <v>371</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" s="4">
+        <v>372</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" s="4">
+        <v>373</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="4">
+        <v>374</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" s="4">
+        <v>375</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" s="4">
+        <v>376</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" s="4">
+        <v>377</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" s="4">
+        <v>378</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" s="4">
+        <v>379</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" s="4">
+        <v>380</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" s="4">
+        <v>381</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" s="4">
+        <v>382</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" s="4">
+        <v>383</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" s="4">
+        <v>384</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" s="4">
+        <v>385</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" s="4">
+        <v>386</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" s="4">
+        <v>387</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" s="4">
+        <v>388</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390" s="4">
+        <v>389</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C390" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" s="4">
+        <v>390</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" s="4">
+        <v>391</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" s="4">
+        <v>392</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" s="4">
+        <v>393</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" s="4">
+        <v>394</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" s="4">
+        <v>395</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" s="4">
+        <v>396</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C397" s="4" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" s="4">
+        <v>397</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" s="4">
+        <v>398</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C399" s="4" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400" s="4">
+        <v>399</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" s="4">
+        <v>400</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C401" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" s="4">
+        <v>401</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C402" s="4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" s="4">
+        <v>402</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C403" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" s="4">
+        <v>403</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" s="4">
+        <v>404</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406" s="4">
+        <v>405</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" s="4">
+        <v>406</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C407" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408" s="4">
+        <v>407</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" s="4">
+        <v>408</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C409" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" s="4">
+        <v>409</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" s="4">
+        <v>410</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C411" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412" s="4">
+        <v>411</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" s="4">
+        <v>412</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" s="4">
+        <v>413</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C414" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" s="4">
+        <v>414</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C415" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" s="4">
+        <v>415</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C416" s="4" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" s="4">
+        <v>416</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C417" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" s="4">
+        <v>417</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C418" s="4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" s="4">
+        <v>418</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C419" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" s="4">
+        <v>419</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C420" s="4" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" s="4">
+        <v>420</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C421" s="4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" s="4">
+        <v>421</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" s="4">
+        <v>422</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C423" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" s="4">
+        <v>423</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C424" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425" s="4">
+        <v>424</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C425" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" s="4">
+        <v>425</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C426" s="4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" s="4">
+        <v>426</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C427" s="4" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428" s="4">
+        <v>427</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C428" s="4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" s="4">
+        <v>428</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C429" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430" s="4">
+        <v>429</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C430" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431" s="4">
+        <v>430</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C431" s="4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" s="4">
+        <v>431</v>
+      </c>
+      <c r="B432" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C432" s="4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433" s="4">
+        <v>432</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C433" s="4" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434" s="4">
+        <v>433</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C434" s="4" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435" s="4">
+        <v>434</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C435" s="4" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436" s="4">
+        <v>435</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C436" s="4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437" s="4">
+        <v>436</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C437" s="4" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438" s="4">
+        <v>437</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C438" s="4" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439" s="4">
+        <v>438</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C439" s="4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440" s="4">
+        <v>439</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C440" s="4" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441" s="4">
+        <v>440</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C441" s="4" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442" s="4">
+        <v>441</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C442" s="4" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443" s="4">
+        <v>442</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C443" s="4" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444" s="4">
+        <v>443</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C444" s="4" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445" s="4">
+        <v>444</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C445" s="4" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446" s="4">
+        <v>445</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C446" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447" s="4">
+        <v>446</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C447" s="4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448" s="4">
+        <v>447</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C448" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449" s="4">
+        <v>448</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C449" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450" s="4">
+        <v>449</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C450" s="4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451" s="4">
+        <v>450</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C451" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452" s="4">
+        <v>451</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C452" s="4" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453" s="4">
+        <v>452</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C453" s="4" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454" s="4">
+        <v>453</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C454" s="4" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455" s="4">
+        <v>454</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C455" s="4" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456" s="4">
+        <v>455</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C456" s="4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457" s="4">
+        <v>456</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C457" s="4" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458" s="4">
+        <v>457</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C458" s="4" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459" s="4">
+        <v>458</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="C459" s="4" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460" s="4">
+        <v>459</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C460" s="4" t="s">
+        <v>1142</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C425" xr:uid="{9280A2EB-6138-4591-893E-551AEB7BC999}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21091,7 +22718,7 @@
   <dimension ref="A1:D8578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -45514,6 +47141,7 @@
       <c r="C8578" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D440" xr:uid="{60353DA3-B691-4445-B3C2-79EFB2F1BE2C}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
